--- a/medicine/Bioéthique/40_Days_for_Life/40_Days_for_Life.xlsx
+++ b/medicine/Bioéthique/40_Days_for_Life/40_Days_for_Life.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">40 Days for Life est une campagne pro-vie qui a commencé en 2004 par un groupe local du Texas, dirigée par David Bereit. 
 Bien que les campagnes locales peuvent se poursuivre toute l'année, la campagne internationale est active chaque année à l'automne et au printemps.  
@@ -513,14 +525,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le concept des 40 jours vient des récits bibliques : 40 jours dans l'arche de Noé ; Moïse se trouve 40 jours sur le mont Sinaï ; et Jésus 40 jours dans le désert. 
-Elle a commencé une première campagne en 2007[1].
+Elle a commencé une première campagne en 2007.
 La campagne de l'automne 2010 a été lancée dans 238 endroits à travers le monde, y compris au Canada, en Australie, en Angleterre, en Irlande du Nord et au Danemark.
-Le 1er novembre 2013, Mgr Marc Aillet, évêque de Bayonne, Lescar et Oloron, était à Washington devant un centre d'avortement (16th Street) avec le fondateur et le directeur de 40 Days for Life, David Bereit[2].
-À propos de ce voyage, le Planning familial et l'association LGBT basque les Bascos, indiquent que c’est la condition de la femme qui est remise en question[3].
-De 2007 à 2013, l'organisation a effectué 2 480 campagnes dans plus de 500 villes et considère que « les vies de 7 000 bébés ont été sauvées » [4].
+Le 1er novembre 2013, Mgr Marc Aillet, évêque de Bayonne, Lescar et Oloron, était à Washington devant un centre d'avortement (16th Street) avec le fondateur et le directeur de 40 Days for Life, David Bereit.
+À propos de ce voyage, le Planning familial et l'association LGBT basque les Bascos, indiquent que c’est la condition de la femme qui est remise en question.
+De 2007 à 2013, l'organisation a effectué 2 480 campagnes dans plus de 500 villes et considère que « les vies de 7 000 bébés ont été sauvées » .
 </t>
         </is>
       </c>
